--- a/natmiOut/OldD7/LR-pairs_lrc2p/Lrpap1-Sort1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Lrpap1-Sort1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.943363540716</v>
+        <v>8.191447666666667</v>
       </c>
       <c r="H2">
-        <v>7.943363540716</v>
+        <v>24.574343</v>
       </c>
       <c r="I2">
-        <v>0.1903069472624277</v>
+        <v>0.185794284429433</v>
       </c>
       <c r="J2">
-        <v>0.1903069472624277</v>
+        <v>0.185794284429433</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.07839309397694</v>
+        <v>1.383699</v>
       </c>
       <c r="N2">
-        <v>1.07839309397694</v>
+        <v>4.151097</v>
       </c>
       <c r="O2">
-        <v>0.0954159541244213</v>
+        <v>0.08080976933214185</v>
       </c>
       <c r="P2">
-        <v>0.0954159541244213</v>
+        <v>0.08080976933214185</v>
       </c>
       <c r="Q2">
-        <v>8.566068385256347</v>
+        <v>11.334497944919</v>
       </c>
       <c r="R2">
-        <v>8.566068385256347</v>
+        <v>102.010481504271</v>
       </c>
       <c r="S2">
-        <v>0.01815831894955046</v>
+        <v>0.01501399326797283</v>
       </c>
       <c r="T2">
-        <v>0.01815831894955046</v>
+        <v>0.01501399326797283</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.943363540716</v>
+        <v>8.191447666666667</v>
       </c>
       <c r="H3">
-        <v>7.943363540716</v>
+        <v>24.574343</v>
       </c>
       <c r="I3">
-        <v>0.1903069472624277</v>
+        <v>0.185794284429433</v>
       </c>
       <c r="J3">
-        <v>0.1903069472624277</v>
+        <v>0.185794284429433</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.43457494650491</v>
+        <v>2.462094</v>
       </c>
       <c r="N3">
-        <v>2.43457494650491</v>
+        <v>7.386282</v>
       </c>
       <c r="O3">
-        <v>0.2154105888711721</v>
+        <v>0.1437893994387872</v>
       </c>
       <c r="P3">
-        <v>0.2154105888711721</v>
+        <v>0.1437893994387872</v>
       </c>
       <c r="Q3">
-        <v>19.33871386720771</v>
+        <v>20.168114151414</v>
       </c>
       <c r="R3">
-        <v>19.33871386720771</v>
+        <v>181.513027362726</v>
       </c>
       <c r="S3">
-        <v>0.04099413157607465</v>
+        <v>0.02671524857726738</v>
       </c>
       <c r="T3">
-        <v>0.04099413157607465</v>
+        <v>0.02671524857726739</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.943363540716</v>
+        <v>8.191447666666667</v>
       </c>
       <c r="H4">
-        <v>7.943363540716</v>
+        <v>24.574343</v>
       </c>
       <c r="I4">
-        <v>0.1903069472624277</v>
+        <v>0.185794284429433</v>
       </c>
       <c r="J4">
-        <v>0.1903069472624277</v>
+        <v>0.185794284429433</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.62421775191397</v>
+        <v>4.336036333333333</v>
       </c>
       <c r="N4">
-        <v>3.62421775191397</v>
+        <v>13.008109</v>
       </c>
       <c r="O4">
-        <v>0.3206698899361937</v>
+        <v>0.2532299986575496</v>
       </c>
       <c r="P4">
-        <v>0.3206698899361937</v>
+        <v>0.2532299986575496</v>
       </c>
       <c r="Q4">
-        <v>28.78847915416913</v>
+        <v>35.51841470526522</v>
       </c>
       <c r="R4">
-        <v>28.78847915416913</v>
+        <v>319.665732347387</v>
       </c>
       <c r="S4">
-        <v>0.06102570783273569</v>
+        <v>0.04704868639664571</v>
       </c>
       <c r="T4">
-        <v>0.06102570783273569</v>
+        <v>0.04704868639664571</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.943363540716</v>
+        <v>8.191447666666667</v>
       </c>
       <c r="H5">
-        <v>7.943363540716</v>
+        <v>24.574343</v>
       </c>
       <c r="I5">
-        <v>0.1903069472624277</v>
+        <v>0.185794284429433</v>
       </c>
       <c r="J5">
-        <v>0.1903069472624277</v>
+        <v>0.185794284429433</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.16483496370046</v>
+        <v>8.941088000000001</v>
       </c>
       <c r="N5">
-        <v>4.16483496370046</v>
+        <v>26.823264</v>
       </c>
       <c r="O5">
-        <v>0.3685035670682129</v>
+        <v>0.5221708325715213</v>
       </c>
       <c r="P5">
-        <v>0.3685035670682129</v>
+        <v>0.5221708325715213</v>
       </c>
       <c r="Q5">
-        <v>33.08279820375748</v>
+        <v>73.24045443506134</v>
       </c>
       <c r="R5">
-        <v>33.08279820375748</v>
+        <v>659.164089915552</v>
       </c>
       <c r="S5">
-        <v>0.07012878890406687</v>
+        <v>0.09701635618754705</v>
       </c>
       <c r="T5">
-        <v>0.07012878890406687</v>
+        <v>0.09701635618754705</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.2165418531815</v>
+        <v>17.317702</v>
       </c>
       <c r="H6">
-        <v>17.2165418531815</v>
+        <v>51.95310600000001</v>
       </c>
       <c r="I6">
-        <v>0.4124735706354766</v>
+        <v>0.3927913821808575</v>
       </c>
       <c r="J6">
-        <v>0.4124735706354766</v>
+        <v>0.3927913821808576</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.07839309397694</v>
+        <v>1.383699</v>
       </c>
       <c r="N6">
-        <v>1.07839309397694</v>
+        <v>4.151097</v>
       </c>
       <c r="O6">
-        <v>0.0954159541244213</v>
+        <v>0.08080976933214185</v>
       </c>
       <c r="P6">
-        <v>0.0954159541244213</v>
+        <v>0.08080976933214185</v>
       </c>
       <c r="Q6">
-        <v>18.56619983663588</v>
+        <v>23.962486939698</v>
       </c>
       <c r="R6">
-        <v>18.56619983663588</v>
+        <v>215.662382457282</v>
       </c>
       <c r="S6">
-        <v>0.03935655929329089</v>
+        <v>0.03174138098968827</v>
       </c>
       <c r="T6">
-        <v>0.03935655929329089</v>
+        <v>0.03174138098968827</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.2165418531815</v>
+        <v>17.317702</v>
       </c>
       <c r="H7">
-        <v>17.2165418531815</v>
+        <v>51.95310600000001</v>
       </c>
       <c r="I7">
-        <v>0.4124735706354766</v>
+        <v>0.3927913821808575</v>
       </c>
       <c r="J7">
-        <v>0.4124735706354766</v>
+        <v>0.3927913821808576</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.43457494650491</v>
+        <v>2.462094</v>
       </c>
       <c r="N7">
-        <v>2.43457494650491</v>
+        <v>7.386282</v>
       </c>
       <c r="O7">
-        <v>0.2154105888711721</v>
+        <v>0.1437893994387872</v>
       </c>
       <c r="P7">
-        <v>0.2154105888711721</v>
+        <v>0.1437893994387872</v>
       </c>
       <c r="Q7">
-        <v>41.9149614612089</v>
+        <v>42.637810187988</v>
       </c>
       <c r="R7">
-        <v>41.9149614612089</v>
+        <v>383.7402916918921</v>
       </c>
       <c r="S7">
-        <v>0.08885117474438305</v>
+        <v>0.05647923694851665</v>
       </c>
       <c r="T7">
-        <v>0.08885117474438305</v>
+        <v>0.05647923694851667</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.2165418531815</v>
+        <v>17.317702</v>
       </c>
       <c r="H8">
-        <v>17.2165418531815</v>
+        <v>51.95310600000001</v>
       </c>
       <c r="I8">
-        <v>0.4124735706354766</v>
+        <v>0.3927913821808575</v>
       </c>
       <c r="J8">
-        <v>0.4124735706354766</v>
+        <v>0.3927913821808576</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.62421775191397</v>
+        <v>4.336036333333333</v>
       </c>
       <c r="N8">
-        <v>3.62421775191397</v>
+        <v>13.008109</v>
       </c>
       <c r="O8">
-        <v>0.3206698899361937</v>
+        <v>0.2532299986575496</v>
       </c>
       <c r="P8">
-        <v>0.3206698899361937</v>
+        <v>0.2532299986575496</v>
       </c>
       <c r="Q8">
-        <v>62.39649661087023</v>
+        <v>75.09018508183934</v>
       </c>
       <c r="R8">
-        <v>62.39649661087023</v>
+        <v>675.8116657365541</v>
       </c>
       <c r="S8">
-        <v>0.1322678544972671</v>
+        <v>0.09946656118235561</v>
       </c>
       <c r="T8">
-        <v>0.1322678544972671</v>
+        <v>0.09946656118235563</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.2165418531815</v>
+        <v>17.317702</v>
       </c>
       <c r="H9">
-        <v>17.2165418531815</v>
+        <v>51.95310600000001</v>
       </c>
       <c r="I9">
-        <v>0.4124735706354766</v>
+        <v>0.3927913821808575</v>
       </c>
       <c r="J9">
-        <v>0.4124735706354766</v>
+        <v>0.3927913821808576</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.16483496370046</v>
+        <v>8.941088000000001</v>
       </c>
       <c r="N9">
-        <v>4.16483496370046</v>
+        <v>26.823264</v>
       </c>
       <c r="O9">
-        <v>0.3685035670682129</v>
+        <v>0.5221708325715213</v>
       </c>
       <c r="P9">
-        <v>0.3685035670682129</v>
+        <v>0.5221708325715213</v>
       </c>
       <c r="Q9">
-        <v>71.70405546414261</v>
+        <v>154.839097539776</v>
       </c>
       <c r="R9">
-        <v>71.70405546414261</v>
+        <v>1393.551877857984</v>
       </c>
       <c r="S9">
-        <v>0.1519979821005356</v>
+        <v>0.205104203060297</v>
       </c>
       <c r="T9">
-        <v>0.1519979821005356</v>
+        <v>0.205104203060297</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.1488352228794</v>
+        <v>12.35128266666667</v>
       </c>
       <c r="H10">
-        <v>11.1488352228794</v>
+        <v>37.053848</v>
       </c>
       <c r="I10">
-        <v>0.2671035746913278</v>
+        <v>0.2801455637905346</v>
       </c>
       <c r="J10">
-        <v>0.2671035746913278</v>
+        <v>0.2801455637905346</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.07839309397694</v>
+        <v>1.383699</v>
       </c>
       <c r="N10">
-        <v>1.07839309397694</v>
+        <v>4.151097</v>
       </c>
       <c r="O10">
-        <v>0.0954159541244213</v>
+        <v>0.08080976933214185</v>
       </c>
       <c r="P10">
-        <v>0.0954159541244213</v>
+        <v>0.08080976933214185</v>
       </c>
       <c r="Q10">
-        <v>12.02282691024</v>
+        <v>17.090457474584</v>
       </c>
       <c r="R10">
-        <v>12.02282691024</v>
+        <v>153.814117271256</v>
       </c>
       <c r="S10">
-        <v>0.02548594242921668</v>
+        <v>0.02263849838933593</v>
       </c>
       <c r="T10">
-        <v>0.02548594242921668</v>
+        <v>0.02263849838933593</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.1488352228794</v>
+        <v>12.35128266666667</v>
       </c>
       <c r="H11">
-        <v>11.1488352228794</v>
+        <v>37.053848</v>
       </c>
       <c r="I11">
-        <v>0.2671035746913278</v>
+        <v>0.2801455637905346</v>
       </c>
       <c r="J11">
-        <v>0.2671035746913278</v>
+        <v>0.2801455637905346</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.43457494650491</v>
+        <v>2.462094</v>
       </c>
       <c r="N11">
-        <v>2.43457494650491</v>
+        <v>7.386282</v>
       </c>
       <c r="O11">
-        <v>0.2154105888711721</v>
+        <v>0.1437893994387872</v>
       </c>
       <c r="P11">
-        <v>0.2154105888711721</v>
+        <v>0.1437893994387872</v>
       </c>
       <c r="Q11">
-        <v>27.14267491633367</v>
+        <v>30.410018945904</v>
       </c>
       <c r="R11">
-        <v>27.14267491633367</v>
+        <v>273.690170513136</v>
       </c>
       <c r="S11">
-        <v>0.05753693831385404</v>
+        <v>0.04028196237288142</v>
       </c>
       <c r="T11">
-        <v>0.05753693831385404</v>
+        <v>0.04028196237288142</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.1488352228794</v>
+        <v>12.35128266666667</v>
       </c>
       <c r="H12">
-        <v>11.1488352228794</v>
+        <v>37.053848</v>
       </c>
       <c r="I12">
-        <v>0.2671035746913278</v>
+        <v>0.2801455637905346</v>
       </c>
       <c r="J12">
-        <v>0.2671035746913278</v>
+        <v>0.2801455637905346</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.62421775191397</v>
+        <v>4.336036333333333</v>
       </c>
       <c r="N12">
-        <v>3.62421775191397</v>
+        <v>13.008109</v>
       </c>
       <c r="O12">
-        <v>0.3206698899361937</v>
+        <v>0.2532299986575496</v>
       </c>
       <c r="P12">
-        <v>0.3206698899361937</v>
+        <v>0.2532299986575496</v>
       </c>
       <c r="Q12">
-        <v>40.40580652792327</v>
+        <v>53.5556104059369</v>
       </c>
       <c r="R12">
-        <v>40.40580652792327</v>
+        <v>482.000493653432</v>
       </c>
       <c r="S12">
-        <v>0.08565207389783198</v>
+        <v>0.07094126074259556</v>
       </c>
       <c r="T12">
-        <v>0.08565207389783198</v>
+        <v>0.07094126074259556</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.1488352228794</v>
+        <v>12.35128266666667</v>
       </c>
       <c r="H13">
-        <v>11.1488352228794</v>
+        <v>37.053848</v>
       </c>
       <c r="I13">
-        <v>0.2671035746913278</v>
+        <v>0.2801455637905346</v>
       </c>
       <c r="J13">
-        <v>0.2671035746913278</v>
+        <v>0.2801455637905346</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.16483496370046</v>
+        <v>8.941088000000001</v>
       </c>
       <c r="N13">
-        <v>4.16483496370046</v>
+        <v>26.823264</v>
       </c>
       <c r="O13">
-        <v>0.3685035670682129</v>
+        <v>0.5221708325715213</v>
       </c>
       <c r="P13">
-        <v>0.3685035670682129</v>
+        <v>0.5221708325715213</v>
       </c>
       <c r="Q13">
-        <v>46.43305874078334</v>
+        <v>110.4339052355413</v>
       </c>
       <c r="R13">
-        <v>46.43305874078334</v>
+        <v>993.9051471198721</v>
       </c>
       <c r="S13">
-        <v>0.09842862005042514</v>
+        <v>0.1462838422857217</v>
       </c>
       <c r="T13">
-        <v>0.09842862005042514</v>
+        <v>0.1462838422857217</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.43100485747704</v>
+        <v>6.228371</v>
       </c>
       <c r="H14">
-        <v>5.43100485747704</v>
+        <v>18.685113</v>
       </c>
       <c r="I14">
-        <v>0.1301159074107678</v>
+        <v>0.1412687695991749</v>
       </c>
       <c r="J14">
-        <v>0.1301159074107678</v>
+        <v>0.1412687695991749</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.07839309397694</v>
+        <v>1.383699</v>
       </c>
       <c r="N14">
-        <v>1.07839309397694</v>
+        <v>4.151097</v>
       </c>
       <c r="O14">
-        <v>0.0954159541244213</v>
+        <v>0.08080976933214185</v>
       </c>
       <c r="P14">
-        <v>0.0954159541244213</v>
+        <v>0.08080976933214185</v>
       </c>
       <c r="Q14">
-        <v>5.856758131658455</v>
+        <v>8.618190724329001</v>
       </c>
       <c r="R14">
-        <v>5.856758131658455</v>
+        <v>77.563716518961</v>
       </c>
       <c r="S14">
-        <v>0.01241513345236327</v>
+        <v>0.01141589668514481</v>
       </c>
       <c r="T14">
-        <v>0.01241513345236327</v>
+        <v>0.01141589668514481</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.43100485747704</v>
+        <v>6.228371</v>
       </c>
       <c r="H15">
-        <v>5.43100485747704</v>
+        <v>18.685113</v>
       </c>
       <c r="I15">
-        <v>0.1301159074107678</v>
+        <v>0.1412687695991749</v>
       </c>
       <c r="J15">
-        <v>0.1301159074107678</v>
+        <v>0.1412687695991749</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.43457494650491</v>
+        <v>2.462094</v>
       </c>
       <c r="N15">
-        <v>2.43457494650491</v>
+        <v>7.386282</v>
       </c>
       <c r="O15">
-        <v>0.2154105888711721</v>
+        <v>0.1437893994387872</v>
       </c>
       <c r="P15">
-        <v>0.2154105888711721</v>
+        <v>0.1437893994387872</v>
       </c>
       <c r="Q15">
-        <v>13.22218836036007</v>
+        <v>15.334834868874</v>
       </c>
       <c r="R15">
-        <v>13.22218836036007</v>
+        <v>138.013513819866</v>
       </c>
       <c r="S15">
-        <v>0.0280283442368604</v>
+        <v>0.02031295154012176</v>
       </c>
       <c r="T15">
-        <v>0.0280283442368604</v>
+        <v>0.02031295154012176</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.43100485747704</v>
+        <v>6.228371</v>
       </c>
       <c r="H16">
-        <v>5.43100485747704</v>
+        <v>18.685113</v>
       </c>
       <c r="I16">
-        <v>0.1301159074107678</v>
+        <v>0.1412687695991749</v>
       </c>
       <c r="J16">
-        <v>0.1301159074107678</v>
+        <v>0.1412687695991749</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.62421775191397</v>
+        <v>4.336036333333333</v>
       </c>
       <c r="N16">
-        <v>3.62421775191397</v>
+        <v>13.008109</v>
       </c>
       <c r="O16">
-        <v>0.3206698899361937</v>
+        <v>0.2532299986575496</v>
       </c>
       <c r="P16">
-        <v>0.3206698899361937</v>
+        <v>0.2532299986575496</v>
       </c>
       <c r="Q16">
-        <v>19.68314421519929</v>
+        <v>27.00644295347967</v>
       </c>
       <c r="R16">
-        <v>19.68314421519929</v>
+        <v>243.057986581317</v>
       </c>
       <c r="S16">
-        <v>0.04172425370835887</v>
+        <v>0.03577349033595274</v>
       </c>
       <c r="T16">
-        <v>0.04172425370835887</v>
+        <v>0.03577349033595274</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.43100485747704</v>
+        <v>6.228371</v>
       </c>
       <c r="H17">
-        <v>5.43100485747704</v>
+        <v>18.685113</v>
       </c>
       <c r="I17">
-        <v>0.1301159074107678</v>
+        <v>0.1412687695991749</v>
       </c>
       <c r="J17">
-        <v>0.1301159074107678</v>
+        <v>0.1412687695991749</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.16483496370046</v>
+        <v>8.941088000000001</v>
       </c>
       <c r="N17">
-        <v>4.16483496370046</v>
+        <v>26.823264</v>
       </c>
       <c r="O17">
-        <v>0.3685035670682129</v>
+        <v>0.5221708325715213</v>
       </c>
       <c r="P17">
-        <v>0.3685035670682129</v>
+        <v>0.5221708325715213</v>
       </c>
       <c r="Q17">
-        <v>22.61923891844741</v>
+        <v>55.688413207648</v>
       </c>
       <c r="R17">
-        <v>22.61923891844741</v>
+        <v>501.195718868832</v>
       </c>
       <c r="S17">
-        <v>0.04794817601318525</v>
+        <v>0.07376643103795556</v>
       </c>
       <c r="T17">
-        <v>0.04794817601318525</v>
+        <v>0.07376643103795556</v>
       </c>
     </row>
   </sheetData>
